--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Imad Wasim</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>19/07/2015</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1322,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1577,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1524,7 +1584,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1576,7 +1636,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1616,7 +1676,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1775,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1724,7 +1782,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1776,7 +1834,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1880,7 +1938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1920,7 +1978,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -1928,7 +1985,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,7 +2025,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -1976,7 +2032,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2068,7 +2124,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2171,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2124,7 +2178,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2270,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2224,7 +2277,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2276,7 +2329,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2328,7 +2381,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2380,7 +2433,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2432,7 +2485,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2484,7 +2537,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2536,7 +2589,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2576,7 +2629,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -2584,7 +2636,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2636,7 +2688,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2688,7 +2740,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2740,7 +2792,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2792,7 +2844,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2896,7 +2948,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2988,7 +3040,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2996,7 +3047,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3048,7 +3099,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3152,7 +3203,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3204,7 +3255,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3244,7 +3295,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -3252,7 +3302,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3291,7 +3341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3313,7 +3363,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3350,7 +3400,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3387,7 +3437,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3424,7 +3474,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3461,7 +3511,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3836</t>
+          <t>3836</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3498,7 +3548,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3838</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3535,7 +3585,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3572,7 +3622,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3609,7 +3659,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3646,7 +3696,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3683,7 +3733,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3720,7 +3770,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3757,7 +3807,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3794,7 +3844,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3831,7 +3881,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3868,7 +3918,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3905,7 +3955,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3942,7 +3992,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3979,7 +4029,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4016,7 +4066,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4053,7 +4103,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4090,7 +4140,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4127,7 +4177,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4164,7 +4214,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4201,7 +4251,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4238,7 +4288,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4275,7 +4325,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4312,7 +4362,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4349,7 +4399,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4386,7 +4436,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4423,7 +4473,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4460,7 +4510,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4497,7 +4547,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4534,7 +4584,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4571,7 +4621,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4608,7 +4658,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4645,7 +4695,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4682,7 +4732,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4719,7 +4769,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4756,7 +4806,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4793,7 +4843,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4830,7 +4880,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4867,7 +4917,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4904,7 +4954,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4941,7 +4991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4978,7 +5028,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5015,7 +5065,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5052,7 +5102,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5089,7 +5139,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5126,7 +5176,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5163,7 +5213,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5200,7 +5250,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5237,7 +5287,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5274,7 +5324,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5300,6 +5350,559 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>1/43</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.12%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16.29%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.42%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.70%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.47%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.30%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.65%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5410,10 +5411,6 @@
           <t>4247</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5516,10 +5513,6 @@
           <t>4276</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5562,149 +5555,523 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.42%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.70%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.47%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.30%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4349</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.65%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.53%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.42%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5714,29 +6081,12 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.70%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5744,29 +6094,12 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.47%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5776,13 +6109,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5790,27 +6116,14 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.30%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5820,29 +6133,12 @@
           <t>4349</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.65%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5850,27 +6146,14 @@
           <t>4375</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5882,13 +6165,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5898,13 +6174,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5411,6 +5410,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5513,6 +5516,10 @@
           <t>4276</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5555,6 +5562,10 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5597,6 +5608,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5759,6 +5774,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5861,6 +5880,10 @@
           <t>4432</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5873,307 +5896,15 @@
           <t>4433</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4423.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>19/07/2015</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/07/2015</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>05/10/2015</t>
@@ -1322,6 +1324,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1577,6 +1580,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1676,6 +1680,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -1775,6 +1780,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1978,6 +1984,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -2025,6 +2032,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -2124,6 +2132,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -2171,6 +2180,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2270,6 +2280,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>27/01/2019</t>
@@ -2629,6 +2640,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -3040,6 +3052,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -3295,6 +3308,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -5356,557 +5370,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.69%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.12%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.22%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.53%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.42%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.70%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.47%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.30%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4349</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.65%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>